--- a/results/gurobi_cplex_comparison/seed_10_k_30.xlsx
+++ b/results/gurobi_cplex_comparison/seed_10_k_30.xlsx
@@ -429,10 +429,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.012</v>
+        <v>0.822</v>
       </c>
       <c r="F2">
-        <v>0.034</v>
+        <v>0.241</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -449,10 +449,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.011</v>
+        <v>1.175</v>
       </c>
       <c r="F3">
-        <v>0.031</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -469,10 +469,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.024</v>
+        <v>1.615</v>
       </c>
       <c r="F4">
-        <v>0.053</v>
+        <v>0.473</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.015</v>
+        <v>2.08</v>
       </c>
       <c r="F5">
-        <v>0.048</v>
+        <v>0.509</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.043</v>
+        <v>2.665</v>
       </c>
       <c r="F6">
-        <v>0.063</v>
+        <v>0.634</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.067</v>
+        <v>3.332</v>
       </c>
       <c r="F7">
-        <v>0.075</v>
+        <v>0.8080000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -549,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.08400000000000001</v>
+        <v>4.017</v>
       </c>
       <c r="F8">
-        <v>0.093</v>
+        <v>0.903</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -569,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.034</v>
+        <v>4.706</v>
       </c>
       <c r="F9">
-        <v>0.063</v>
+        <v>1.041</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.102</v>
+        <v>5.656</v>
       </c>
       <c r="F10">
-        <v>4.147</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.039</v>
+        <v>6.474</v>
       </c>
       <c r="F11">
-        <v>0.076</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.055</v>
+        <v>7.475</v>
       </c>
       <c r="F12">
-        <v>48.606</v>
+        <v>78.934</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.039</v>
+        <v>8.441000000000001</v>
       </c>
       <c r="F13">
-        <v>90.18600000000001</v>
+        <v>93.291</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.122</v>
+        <v>9.609</v>
       </c>
       <c r="F14">
-        <v>100.376</v>
+        <v>119.392</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.07199999999999999</v>
+        <v>10.699</v>
       </c>
       <c r="F15">
-        <v>100.759</v>
+        <v>85.42100000000001</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.08699999999999999</v>
+        <v>12.024</v>
       </c>
       <c r="F16">
-        <v>77.288</v>
+        <v>56.347</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -729,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.468</v>
+        <v>13.669</v>
       </c>
       <c r="F17">
-        <v>130.774</v>
+        <v>153.039</v>
       </c>
     </row>
   </sheetData>
